--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-11T14:36:20+00:00</t>
+    <t>2023-09-21T13:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-21T13:09:16+00:00</t>
+    <t>2023-09-28T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T19:00:02+00:00</t>
+    <t>2023-10-02T12:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T12:13:21+00:00</t>
+    <t>2023-10-04T08:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T08:03:23+00:00</t>
+    <t>2023-10-05T15:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:17:50+00:00</t>
+    <t>2023-10-10T19:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The placer's software creates the RequestOrchestration when (re)ordering medication.</t>
+    <t>Linked Care Profile for the overall order. The LINCA Order serves as container for the individual placements. The placer's software creates the RequestOrchestration when (re)ordering medication.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -165,7 +165,7 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
+    <t>LinkedCare order ID, assigned by Linked Care FHIR server</t>
   </si>
   <si>
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
@@ -469,7 +469,7 @@
     <t>RequestOrchestration.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+    <t xml:space="preserve">Assigned by Linked Care FHIR server. Possible vlaues: active (default), revoked (if complete RequestOrchestration is deleted), completed (when all chains linking to a contained OrderMedicationRequest entered terminal state)  </t>
   </si>
   <si>
     <t>The current state of the request. For request orchestrations, the status reflects the status of all the requests in the orchestration.</t>
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>Intent of a LINCARequestOrchestration is always to oder medications.</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:35:45+00:00</t>
+    <t>2023-10-10T19:44:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T19:44:47+00:00</t>
+    <t>2023-10-11T18:07:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:07:13+00:00</t>
+    <t>2023-10-12T12:56:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:56:35+00:00</t>
+    <t>2023-10-12T14:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T14:17:28+00:00</t>
+    <t>2023-10-12T18:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T18:56:25+00:00</t>
+    <t>2023-10-16T11:32:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T11:32:34+00:00</t>
+    <t>2023-10-16T15:04:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
+++ b/r5-LinkedCare-dev/StructureDefinition-linca-full-order-list.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T15:04:26+00:00</t>
+    <t>2023-10-17T07:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
     <t>RequestOrchestration.status</t>
   </si>
   <si>
-    <t xml:space="preserve">Assigned by Linked Care FHIR server. Possible vlaues: active (default), revoked (if complete RequestOrchestration is deleted), completed (when all chains linking to a contained OrderMedicationRequest entered terminal state)  </t>
+    <t>Must be set to "active" when posting a new order. Assigned by Linked Care FHIR server in the other cases. Possible values: active (default), revoked (if the RequestOrchestration has been deleted in its entirety), completed (when all chains of associated OrderMedicationRequests have entered terminal state)</t>
   </si>
   <si>
     <t>The current state of the request. For request orchestrations, the status reflects the status of all the requests in the orchestration.</t>
@@ -494,7 +494,7 @@
 </t>
   </si>
   <si>
-    <t>Intent of a LINCARequestOrchestration is always to oder medications.</t>
+    <t>The intent of a LINCARequestOrchestration is always to order medications.</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
